--- a/exports/data.xlsx
+++ b/exports/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="221">
   <si>
     <t>currency</t>
   </si>
@@ -76,6 +76,9 @@
     <t>OMG</t>
   </si>
   <si>
+    <t>BCH</t>
+  </si>
+  <si>
     <t>USDT</t>
   </si>
   <si>
@@ -100,6 +103,15 @@
     <t>IOST</t>
   </si>
   <si>
+    <t>ZRX</t>
+  </si>
+  <si>
+    <t>KNC</t>
+  </si>
+  <si>
+    <t>RDN</t>
+  </si>
+  <si>
     <t>ABT</t>
   </si>
   <si>
@@ -115,6 +127,9 @@
     <t>JFIN</t>
   </si>
   <si>
+    <t>EVX</t>
+  </si>
+  <si>
     <t>BNB</t>
   </si>
   <si>
@@ -124,15 +139,27 @@
     <t>DOGE</t>
   </si>
   <si>
+    <t>DAI</t>
+  </si>
+  <si>
+    <t>USDC</t>
+  </si>
+  <si>
     <t>BAT</t>
   </si>
   <si>
+    <t>MKR</t>
+  </si>
+  <si>
     <t>ENJ</t>
   </si>
   <si>
     <t>BAND</t>
   </si>
   <si>
+    <t>COMP</t>
+  </si>
+  <si>
     <t>KSM</t>
   </si>
   <si>
@@ -145,6 +172,9 @@
     <t>SCRT</t>
   </si>
   <si>
+    <t>GLM</t>
+  </si>
+  <si>
     <t>YFI</t>
   </si>
   <si>
@@ -160,18 +190,30 @@
     <t>OCEAN</t>
   </si>
   <si>
+    <t>SNX</t>
+  </si>
+  <si>
     <t>SAND</t>
   </si>
   <si>
+    <t>BAL</t>
+  </si>
+  <si>
     <t>CRV</t>
   </si>
   <si>
     <t>KUB</t>
   </si>
   <si>
+    <t>AXS</t>
+  </si>
+  <si>
     <t>SUSHI</t>
   </si>
   <si>
+    <t>FTT</t>
+  </si>
+  <si>
     <t>ILV</t>
   </si>
   <si>
@@ -190,349 +232,451 @@
     <t>Up</t>
   </si>
   <si>
-    <t>Buy</t>
-  </si>
-  <si>
-    <t>-2.87%</t>
-  </si>
-  <si>
-    <t>-4.25%</t>
-  </si>
-  <si>
-    <t>-0.97%</t>
-  </si>
-  <si>
-    <t>-4.42%</t>
-  </si>
-  <si>
-    <t>0.77%</t>
-  </si>
-  <si>
-    <t>-4.17%</t>
-  </si>
-  <si>
-    <t>-3.73%</t>
-  </si>
-  <si>
-    <t>-9.83%</t>
-  </si>
-  <si>
-    <t>-4.76%</t>
-  </si>
-  <si>
-    <t>-6.83%</t>
-  </si>
-  <si>
-    <t>-4.7%</t>
-  </si>
-  <si>
-    <t>-7.2%</t>
-  </si>
-  <si>
-    <t>-2.75%</t>
-  </si>
-  <si>
-    <t>-9.17%</t>
-  </si>
-  <si>
-    <t>-4.1%</t>
-  </si>
-  <si>
-    <t>-14.36%</t>
-  </si>
-  <si>
-    <t>-17.06%</t>
-  </si>
-  <si>
-    <t>0.27%</t>
-  </si>
-  <si>
-    <t>-4.67%</t>
-  </si>
-  <si>
-    <t>-4.54%</t>
-  </si>
-  <si>
-    <t>-5.4%</t>
-  </si>
-  <si>
-    <t>-10.04%</t>
-  </si>
-  <si>
-    <t>-3.96%</t>
-  </si>
-  <si>
-    <t>-1.56%</t>
-  </si>
-  <si>
-    <t>-6.42%</t>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>-2.64%</t>
+  </si>
+  <si>
+    <t>-3.02%</t>
+  </si>
+  <si>
+    <t>-3.81%</t>
+  </si>
+  <si>
+    <t>-0.58%</t>
+  </si>
+  <si>
+    <t>-4.89%</t>
+  </si>
+  <si>
+    <t>0.23%</t>
+  </si>
+  <si>
+    <t>0.59%</t>
+  </si>
+  <si>
+    <t>-4.12%</t>
+  </si>
+  <si>
+    <t>-3.5%</t>
   </si>
   <si>
     <t>-9.62%</t>
   </si>
   <si>
-    <t>-14.09%</t>
-  </si>
-  <si>
-    <t>-4.26%</t>
-  </si>
-  <si>
-    <t>-2.82%</t>
-  </si>
-  <si>
-    <t>-2.06%</t>
-  </si>
-  <si>
-    <t>-2.69%</t>
-  </si>
-  <si>
-    <t>-3.89%</t>
-  </si>
-  <si>
-    <t>-8.53%</t>
-  </si>
-  <si>
-    <t>-12.8%</t>
-  </si>
-  <si>
-    <t>5.27%</t>
-  </si>
-  <si>
-    <t>14.66%</t>
+    <t>-5.14%</t>
+  </si>
+  <si>
+    <t>-7.21%</t>
+  </si>
+  <si>
+    <t>-4.55%</t>
+  </si>
+  <si>
+    <t>-7.94%</t>
+  </si>
+  <si>
+    <t>-5.34%</t>
+  </si>
+  <si>
+    <t>-3.85%</t>
+  </si>
+  <si>
+    <t>-22.39%</t>
+  </si>
+  <si>
+    <t>-2.93%</t>
+  </si>
+  <si>
+    <t>-8.62%</t>
+  </si>
+  <si>
+    <t>-3.8%</t>
+  </si>
+  <si>
+    <t>-19.65%</t>
+  </si>
+  <si>
+    <t>-21.6%</t>
+  </si>
+  <si>
+    <t>-46.65%</t>
+  </si>
+  <si>
+    <t>0.54%</t>
+  </si>
+  <si>
+    <t>-5.43%</t>
+  </si>
+  <si>
+    <t>-4.68%</t>
+  </si>
+  <si>
+    <t>-0.88%</t>
+  </si>
+  <si>
+    <t>0.12%</t>
+  </si>
+  <si>
+    <t>-5.49%</t>
+  </si>
+  <si>
+    <t>-4.93%</t>
+  </si>
+  <si>
+    <t>-9.67%</t>
+  </si>
+  <si>
+    <t>-4.36%</t>
+  </si>
+  <si>
+    <t>-4.71%</t>
+  </si>
+  <si>
+    <t>-1.23%</t>
+  </si>
+  <si>
+    <t>-6.17%</t>
+  </si>
+  <si>
+    <t>-9.9%</t>
+  </si>
+  <si>
+    <t>-13.14%</t>
+  </si>
+  <si>
+    <t>-5.56%</t>
+  </si>
+  <si>
+    <t>-3.88%</t>
+  </si>
+  <si>
+    <t>-2.18%</t>
+  </si>
+  <si>
+    <t>-0.15%</t>
+  </si>
+  <si>
+    <t>-3%</t>
+  </si>
+  <si>
+    <t>-3.75%</t>
+  </si>
+  <si>
+    <t>-3.82%</t>
+  </si>
+  <si>
+    <t>-8.06%</t>
+  </si>
+  <si>
+    <t>-5.42%</t>
+  </si>
+  <si>
+    <t>-11.81%</t>
+  </si>
+  <si>
+    <t>-5.95%</t>
+  </si>
+  <si>
+    <t>-3.53%</t>
+  </si>
+  <si>
+    <t>16.14%</t>
   </si>
   <si>
     <t>-3.93%</t>
   </si>
   <si>
-    <t>-8.77%</t>
-  </si>
-  <si>
-    <t>-17.75%</t>
-  </si>
-  <si>
-    <t>-2.74%</t>
-  </si>
-  <si>
-    <t>1,667,777.5</t>
-  </si>
-  <si>
-    <t>133,193.94</t>
-  </si>
-  <si>
-    <t>23.41</t>
-  </si>
-  <si>
-    <t>49.12</t>
-  </si>
-  <si>
-    <t>221.54</t>
-  </si>
-  <si>
-    <t>33.97</t>
-  </si>
-  <si>
-    <t>5,050.36</t>
-  </si>
-  <si>
-    <t>29.97</t>
-  </si>
-  <si>
-    <t>2.5244</t>
+    <t>-9.51%</t>
+  </si>
+  <si>
+    <t>-17.38%</t>
+  </si>
+  <si>
+    <t>-4.61%</t>
+  </si>
+  <si>
+    <t>1,672,499.92</t>
+  </si>
+  <si>
+    <t>133,144</t>
+  </si>
+  <si>
+    <t>23.45</t>
+  </si>
+  <si>
+    <t>49.33</t>
+  </si>
+  <si>
+    <t>220.66</t>
+  </si>
+  <si>
+    <t>15,259.44</t>
+  </si>
+  <si>
+    <t>33.93</t>
+  </si>
+  <si>
+    <t>5,057.5</t>
+  </si>
+  <si>
+    <t>30.01</t>
+  </si>
+  <si>
+    <t>2.5216</t>
   </si>
   <si>
     <t>2.4</t>
   </si>
   <si>
-    <t>11.86</t>
-  </si>
-  <si>
-    <t>742.4</t>
+    <t>11.84</t>
+  </si>
+  <si>
+    <t>745.84</t>
   </si>
   <si>
     <t>1.16</t>
   </si>
   <si>
+    <t>28.03</t>
+  </si>
+  <si>
+    <t>45.48</t>
+  </si>
+  <si>
+    <t>6.03</t>
+  </si>
+  <si>
     <t>5.31</t>
   </si>
   <si>
-    <t>119.9</t>
-  </si>
-  <si>
-    <t>9.58</t>
-  </si>
-  <si>
-    <t>8.52</t>
-  </si>
-  <si>
-    <t>110.99</t>
-  </si>
-  <si>
-    <t>18,550.22</t>
-  </si>
-  <si>
-    <t>15.1</t>
+    <t>120.3</t>
+  </si>
+  <si>
+    <t>9.62</t>
+  </si>
+  <si>
+    <t>8.0995</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>2.79</t>
+  </si>
+  <si>
+    <t>18,599.8</t>
+  </si>
+  <si>
+    <t>14.99</t>
   </si>
   <si>
     <t>6.11</t>
   </si>
   <si>
-    <t>43.61</t>
-  </si>
-  <si>
-    <t>97.07</t>
-  </si>
-  <si>
-    <t>190.5</t>
-  </si>
-  <si>
-    <t>10,658.42</t>
-  </si>
-  <si>
-    <t>984.54</t>
-  </si>
-  <si>
-    <t>474.55</t>
-  </si>
-  <si>
-    <t>183.88</t>
-  </si>
-  <si>
-    <t>1,008,000</t>
-  </si>
-  <si>
-    <t>620.99</t>
-  </si>
-  <si>
-    <t>9,205.53</t>
-  </si>
-  <si>
-    <t>24.64</t>
-  </si>
-  <si>
-    <t>30.89</t>
-  </si>
-  <si>
-    <t>205.65</t>
-  </si>
-  <si>
-    <t>168.18</t>
-  </si>
-  <si>
-    <t>500.02</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>37,157.52</t>
-  </si>
-  <si>
-    <t>16.54</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>92.01</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:42:31</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:42:32</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:42:33</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:42:34</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:42:36</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:42:37</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:42:38</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:42:39</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:42:40</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:42:43</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:42:44</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:42:45</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:42:46</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:42:47</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:42:48</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:42:49</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:42:51</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:42:53</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:42:54</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:42:55</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:42:56</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:42:57</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:42:59</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:43:00</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:43:01</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:43:03</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:43:04</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:43:05</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:43:07</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:43:08</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:43:09</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:43:10</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:43:11</t>
+    <t>33.6</t>
+  </si>
+  <si>
+    <t>33.81</t>
+  </si>
+  <si>
+    <t>43.74</t>
+  </si>
+  <si>
+    <t>87,271.84</t>
+  </si>
+  <si>
+    <t>97.47</t>
+  </si>
+  <si>
+    <t>189.65</t>
+  </si>
+  <si>
+    <t>7,518.51</t>
+  </si>
+  <si>
+    <t>10,706.95</t>
+  </si>
+  <si>
+    <t>986.08</t>
+  </si>
+  <si>
+    <t>473.04</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>15.62</t>
+  </si>
+  <si>
+    <t>1,015,000</t>
+  </si>
+  <si>
+    <t>626</t>
+  </si>
+  <si>
+    <t>9,436.59</t>
+  </si>
+  <si>
+    <t>24.59</t>
+  </si>
+  <si>
+    <t>31.04</t>
+  </si>
+  <si>
+    <t>203.2</t>
+  </si>
+  <si>
+    <t>206.12</t>
+  </si>
+  <si>
+    <t>582.59</t>
+  </si>
+  <si>
+    <t>169.78</t>
+  </si>
+  <si>
+    <t>450.5</t>
+  </si>
+  <si>
+    <t>3,501.98</t>
+  </si>
+  <si>
+    <t>308.27</t>
+  </si>
+  <si>
+    <t>1,385.87</t>
+  </si>
+  <si>
+    <t>37,122</t>
+  </si>
+  <si>
+    <t>16.47</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>89.99</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:52:54</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:52:55</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:52:56</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:52:57</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:52:58</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:52:59</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:01</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:02</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:03</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:04</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:05</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:06</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:07</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:08</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:09</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:10</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:11</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:12</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:13</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:14</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:15</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:16</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:17</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:18</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:19</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:20</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:21</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:22</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:23</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:24</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:25</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:26</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:27</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:28</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:29</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:30</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:31</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:53:32</t>
   </si>
 </sst>
 </file>
@@ -890,7 +1034,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -951,16 +1095,16 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -995,16 +1139,16 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="H3" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -1039,16 +1183,16 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="H4" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -1083,16 +1227,16 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="H5" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -1127,16 +1271,16 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="H6" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -1171,16 +1315,16 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="H7" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -1198,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
@@ -1215,22 +1359,22 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="H8" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -1242,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
@@ -1259,16 +1403,16 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="H9" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -1286,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1303,16 +1447,16 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="H10" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -1330,10 +1474,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1347,19 +1491,19 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="H11" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -1391,16 +1535,16 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="H12" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -1435,16 +1579,16 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="H13" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -1479,16 +1623,16 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H14" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -1523,16 +1667,16 @@
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="H15" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -1567,16 +1711,16 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="H16" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -1597,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1611,16 +1755,16 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="H17" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -1655,16 +1799,16 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="H18" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -1699,16 +1843,16 @@
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="H19" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -1723,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -1743,16 +1887,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="H20" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -1773,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1787,16 +1931,16 @@
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="H21" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -1831,16 +1975,16 @@
         <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="H22" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -1875,16 +2019,16 @@
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="G23" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="H23" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -1899,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -1919,16 +2063,16 @@
         <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="H24" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -1963,16 +2107,16 @@
         <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="G25" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="H25" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -2007,16 +2151,16 @@
         <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G26" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="H26" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -2051,19 +2195,19 @@
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G27" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="H27" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="b">
         <v>0</v>
@@ -2095,16 +2239,16 @@
         <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="G28" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="H28" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -2139,16 +2283,16 @@
         <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G29" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="H29" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -2166,10 +2310,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2183,16 +2327,16 @@
         <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="G30" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="H30" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -2210,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="b">
         <v>0</v>
@@ -2227,16 +2371,16 @@
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G31" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="H31" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -2271,19 +2415,16 @@
         <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G32" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="H32" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -2318,16 +2459,16 @@
         <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F33" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G33" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="H33" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -2342,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -2362,16 +2503,16 @@
         <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F34" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="G34" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="H34" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -2392,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2406,16 +2547,19 @@
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>70</v>
+      </c>
+      <c r="E35" t="s">
+        <v>72</v>
       </c>
       <c r="F35" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="G35" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="H35" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -2424,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -2450,16 +2594,16 @@
         <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G36" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="H36" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -2494,16 +2638,16 @@
         <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="G37" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="H37" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -2512,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -2538,16 +2682,16 @@
         <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G38" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="H38" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -2568,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2582,16 +2726,16 @@
         <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="G39" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="H39" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -2626,19 +2770,19 @@
         <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F40" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="G40" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="H40" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="I40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="b">
         <v>0</v>
@@ -2653,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" t="b">
         <v>0</v>
@@ -2670,16 +2814,16 @@
         <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="G41" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="H41" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -2714,36 +2858,652 @@
         <v>55</v>
       </c>
       <c r="D42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" t="s">
+        <v>167</v>
+      </c>
+      <c r="H42" t="s">
+        <v>210</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="b">
+        <v>0</v>
+      </c>
+      <c r="O42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
         <v>56</v>
       </c>
-      <c r="F42" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" t="s">
-        <v>139</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="D43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G43" t="s">
+        <v>168</v>
+      </c>
+      <c r="H43" t="s">
+        <v>210</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="b">
+        <v>1</v>
+      </c>
+      <c r="N43" t="b">
+        <v>0</v>
+      </c>
+      <c r="O43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" t="s">
+        <v>115</v>
+      </c>
+      <c r="G44" t="s">
+        <v>169</v>
+      </c>
+      <c r="H44" t="s">
+        <v>211</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="b">
+        <v>0</v>
+      </c>
+      <c r="O44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" t="s">
+        <v>170</v>
+      </c>
+      <c r="H45" t="s">
+        <v>212</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <v>1</v>
+      </c>
+      <c r="N45" t="b">
+        <v>0</v>
+      </c>
+      <c r="O45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" t="s">
+        <v>117</v>
+      </c>
+      <c r="G46" t="s">
+        <v>171</v>
+      </c>
+      <c r="H46" t="s">
+        <v>212</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="b">
+        <v>0</v>
+      </c>
+      <c r="O46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" t="s">
         <v>172</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" t="b">
-        <v>0</v>
-      </c>
-      <c r="M42" t="b">
-        <v>0</v>
-      </c>
-      <c r="N42" t="b">
-        <v>0</v>
-      </c>
-      <c r="O42" t="b">
+      <c r="H47" t="s">
+        <v>213</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" t="b">
+        <v>1</v>
+      </c>
+      <c r="O47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" t="s">
+        <v>119</v>
+      </c>
+      <c r="G48" t="s">
+        <v>173</v>
+      </c>
+      <c r="H48" t="s">
+        <v>214</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="b">
+        <v>0</v>
+      </c>
+      <c r="O48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" t="s">
+        <v>120</v>
+      </c>
+      <c r="G49" t="s">
+        <v>174</v>
+      </c>
+      <c r="H49" t="s">
+        <v>214</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="b">
+        <v>0</v>
+      </c>
+      <c r="O49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" t="s">
+        <v>121</v>
+      </c>
+      <c r="G50" t="s">
+        <v>175</v>
+      </c>
+      <c r="H50" t="s">
+        <v>215</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" t="s">
+        <v>176</v>
+      </c>
+      <c r="H51" t="s">
+        <v>216</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" t="s">
+        <v>123</v>
+      </c>
+      <c r="G52" t="s">
+        <v>177</v>
+      </c>
+      <c r="H52" t="s">
+        <v>216</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53" t="s">
+        <v>116</v>
+      </c>
+      <c r="G53" t="s">
+        <v>178</v>
+      </c>
+      <c r="H53" t="s">
+        <v>217</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" t="s">
+        <v>70</v>
+      </c>
+      <c r="F54" t="s">
+        <v>124</v>
+      </c>
+      <c r="G54" t="s">
+        <v>179</v>
+      </c>
+      <c r="H54" t="s">
+        <v>218</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" t="b">
+        <v>0</v>
+      </c>
+      <c r="O54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" t="s">
+        <v>125</v>
+      </c>
+      <c r="G55" t="s">
+        <v>180</v>
+      </c>
+      <c r="H55" t="s">
+        <v>219</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="b">
+        <v>0</v>
+      </c>
+      <c r="O55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" t="s">
+        <v>126</v>
+      </c>
+      <c r="G56" t="s">
+        <v>181</v>
+      </c>
+      <c r="H56" t="s">
+        <v>220</v>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" t="b">
+        <v>0</v>
+      </c>
+      <c r="O56" t="b">
         <v>0</v>
       </c>
     </row>

--- a/exports/data.xlsx
+++ b/exports/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="219">
   <si>
     <t>currency</t>
   </si>
@@ -235,448 +235,442 @@
     <t>Sell</t>
   </si>
   <si>
-    <t>-2.64%</t>
-  </si>
-  <si>
-    <t>-3.02%</t>
-  </si>
-  <si>
-    <t>-3.81%</t>
-  </si>
-  <si>
-    <t>-0.58%</t>
-  </si>
-  <si>
-    <t>-4.89%</t>
-  </si>
-  <si>
-    <t>0.23%</t>
-  </si>
-  <si>
-    <t>0.59%</t>
-  </si>
-  <si>
-    <t>-4.12%</t>
-  </si>
-  <si>
-    <t>-3.5%</t>
-  </si>
-  <si>
-    <t>-9.62%</t>
-  </si>
-  <si>
-    <t>-5.14%</t>
-  </si>
-  <si>
-    <t>-7.21%</t>
-  </si>
-  <si>
-    <t>-4.55%</t>
-  </si>
-  <si>
-    <t>-7.94%</t>
-  </si>
-  <si>
-    <t>-5.34%</t>
-  </si>
-  <si>
-    <t>-3.85%</t>
-  </si>
-  <si>
-    <t>-22.39%</t>
-  </si>
-  <si>
-    <t>-2.93%</t>
-  </si>
-  <si>
-    <t>-8.62%</t>
-  </si>
-  <si>
-    <t>-3.8%</t>
-  </si>
-  <si>
-    <t>-19.65%</t>
-  </si>
-  <si>
-    <t>-21.6%</t>
-  </si>
-  <si>
-    <t>-46.65%</t>
-  </si>
-  <si>
-    <t>0.54%</t>
-  </si>
-  <si>
-    <t>-5.43%</t>
-  </si>
-  <si>
-    <t>-4.68%</t>
-  </si>
-  <si>
-    <t>-0.88%</t>
-  </si>
-  <si>
-    <t>0.12%</t>
+    <t>-2.99%</t>
+  </si>
+  <si>
+    <t>-2.92%</t>
+  </si>
+  <si>
+    <t>-4.31%</t>
+  </si>
+  <si>
+    <t>-1.06%</t>
+  </si>
+  <si>
+    <t>-5.15%</t>
+  </si>
+  <si>
+    <t>0.27%</t>
+  </si>
+  <si>
+    <t>0.53%</t>
+  </si>
+  <si>
+    <t>-4.4%</t>
+  </si>
+  <si>
+    <t>-3.7%</t>
+  </si>
+  <si>
+    <t>-10.7%</t>
+  </si>
+  <si>
+    <t>-4.76%</t>
+  </si>
+  <si>
+    <t>-7.53%</t>
+  </si>
+  <si>
+    <t>-5.28%</t>
+  </si>
+  <si>
+    <t>-8%</t>
+  </si>
+  <si>
+    <t>-5.6%</t>
+  </si>
+  <si>
+    <t>-4.21%</t>
+  </si>
+  <si>
+    <t>-16.99%</t>
+  </si>
+  <si>
+    <t>-3.29%</t>
+  </si>
+  <si>
+    <t>-9.46%</t>
+  </si>
+  <si>
+    <t>-4.61%</t>
+  </si>
+  <si>
+    <t>-16.18%</t>
+  </si>
+  <si>
+    <t>-17.47%</t>
+  </si>
+  <si>
+    <t>-50.86%</t>
+  </si>
+  <si>
+    <t>0.48%</t>
   </si>
   <si>
     <t>-5.49%</t>
   </si>
   <si>
+    <t>-5.01%</t>
+  </si>
+  <si>
+    <t>-0.27%</t>
+  </si>
+  <si>
+    <t>0.09%</t>
+  </si>
+  <si>
+    <t>-5.5%</t>
+  </si>
+  <si>
     <t>-4.93%</t>
   </si>
   <si>
-    <t>-9.67%</t>
-  </si>
-  <si>
-    <t>-4.36%</t>
-  </si>
-  <si>
-    <t>-4.71%</t>
-  </si>
-  <si>
-    <t>-1.23%</t>
-  </si>
-  <si>
-    <t>-6.17%</t>
-  </si>
-  <si>
-    <t>-9.9%</t>
-  </si>
-  <si>
-    <t>-13.14%</t>
-  </si>
-  <si>
-    <t>-5.56%</t>
-  </si>
-  <si>
-    <t>-3.88%</t>
-  </si>
-  <si>
-    <t>-2.18%</t>
-  </si>
-  <si>
-    <t>-0.15%</t>
-  </si>
-  <si>
-    <t>-3%</t>
-  </si>
-  <si>
-    <t>-3.75%</t>
-  </si>
-  <si>
-    <t>-3.82%</t>
-  </si>
-  <si>
-    <t>-8.06%</t>
-  </si>
-  <si>
-    <t>-5.42%</t>
-  </si>
-  <si>
-    <t>-11.81%</t>
-  </si>
-  <si>
-    <t>-5.95%</t>
-  </si>
-  <si>
-    <t>-3.53%</t>
-  </si>
-  <si>
-    <t>16.14%</t>
-  </si>
-  <si>
-    <t>-3.93%</t>
-  </si>
-  <si>
-    <t>-9.51%</t>
-  </si>
-  <si>
-    <t>-17.38%</t>
-  </si>
-  <si>
-    <t>-4.61%</t>
-  </si>
-  <si>
-    <t>1,672,499.92</t>
-  </si>
-  <si>
-    <t>133,144</t>
-  </si>
-  <si>
-    <t>23.45</t>
-  </si>
-  <si>
-    <t>49.33</t>
-  </si>
-  <si>
-    <t>220.66</t>
-  </si>
-  <si>
-    <t>15,259.44</t>
-  </si>
-  <si>
-    <t>33.93</t>
-  </si>
-  <si>
-    <t>5,057.5</t>
-  </si>
-  <si>
-    <t>30.01</t>
-  </si>
-  <si>
-    <t>2.5216</t>
+    <t>-9.85%</t>
+  </si>
+  <si>
+    <t>-4.54%</t>
+  </si>
+  <si>
+    <t>-4.58%</t>
+  </si>
+  <si>
+    <t>-0.75%</t>
+  </si>
+  <si>
+    <t>-6.46%</t>
+  </si>
+  <si>
+    <t>-9.7%</t>
+  </si>
+  <si>
+    <t>-12.4%</t>
+  </si>
+  <si>
+    <t>-5.79%</t>
+  </si>
+  <si>
+    <t>-3.61%</t>
+  </si>
+  <si>
+    <t>-3.49%</t>
+  </si>
+  <si>
+    <t>2.1%</t>
+  </si>
+  <si>
+    <t>-3.43%</t>
+  </si>
+  <si>
+    <t>-4.08%</t>
+  </si>
+  <si>
+    <t>-8.92%</t>
+  </si>
+  <si>
+    <t>-5.52%</t>
+  </si>
+  <si>
+    <t>-12.1%</t>
+  </si>
+  <si>
+    <t>-6.96%</t>
+  </si>
+  <si>
+    <t>-3.94%</t>
+  </si>
+  <si>
+    <t>15.7%</t>
+  </si>
+  <si>
+    <t>-4.49%</t>
+  </si>
+  <si>
+    <t>-3.57%</t>
+  </si>
+  <si>
+    <t>-9.45%</t>
+  </si>
+  <si>
+    <t>-20.27%</t>
+  </si>
+  <si>
+    <t>-5.4%</t>
+  </si>
+  <si>
+    <t>1,667,009.99</t>
+  </si>
+  <si>
+    <t>133,000</t>
+  </si>
+  <si>
+    <t>23.33</t>
+  </si>
+  <si>
+    <t>49.24</t>
+  </si>
+  <si>
+    <t>220.42</t>
+  </si>
+  <si>
+    <t>15,257.98</t>
+  </si>
+  <si>
+    <t>33.92</t>
+  </si>
+  <si>
+    <t>5,037.5</t>
+  </si>
+  <si>
+    <t>29.92</t>
+  </si>
+  <si>
+    <t>2.52</t>
   </si>
   <si>
     <t>2.4</t>
   </si>
   <si>
-    <t>11.84</t>
-  </si>
-  <si>
-    <t>745.84</t>
-  </si>
-  <si>
-    <t>1.16</t>
-  </si>
-  <si>
-    <t>28.03</t>
-  </si>
-  <si>
-    <t>45.48</t>
-  </si>
-  <si>
-    <t>6.03</t>
-  </si>
-  <si>
-    <t>5.31</t>
-  </si>
-  <si>
-    <t>120.3</t>
-  </si>
-  <si>
-    <t>9.62</t>
-  </si>
-  <si>
-    <t>8.0995</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>2.79</t>
-  </si>
-  <si>
-    <t>18,599.8</t>
-  </si>
-  <si>
-    <t>14.99</t>
-  </si>
-  <si>
-    <t>6.11</t>
+    <t>11.79</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>45.31</t>
+  </si>
+  <si>
+    <t>6.06</t>
+  </si>
+  <si>
+    <t>5.29</t>
+  </si>
+  <si>
+    <t>119.51</t>
+  </si>
+  <si>
+    <t>9.52</t>
+  </si>
+  <si>
+    <t>8.39</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>2.57</t>
+  </si>
+  <si>
+    <t>18,569.44</t>
+  </si>
+  <si>
+    <t>14.98</t>
+  </si>
+  <si>
+    <t>6.0888</t>
   </si>
   <si>
     <t>33.6</t>
   </si>
   <si>
-    <t>33.81</t>
-  </si>
-  <si>
-    <t>43.74</t>
+    <t>33.8</t>
+  </si>
+  <si>
+    <t>43.66</t>
   </si>
   <si>
     <t>87,271.84</t>
   </si>
   <si>
-    <t>97.47</t>
-  </si>
-  <si>
-    <t>189.65</t>
-  </si>
-  <si>
-    <t>7,518.51</t>
-  </si>
-  <si>
-    <t>10,706.95</t>
-  </si>
-  <si>
-    <t>986.08</t>
-  </si>
-  <si>
-    <t>473.04</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>15.62</t>
-  </si>
-  <si>
-    <t>1,015,000</t>
-  </si>
-  <si>
-    <t>626</t>
-  </si>
-  <si>
-    <t>9,436.59</t>
-  </si>
-  <si>
-    <t>24.59</t>
-  </si>
-  <si>
-    <t>31.04</t>
-  </si>
-  <si>
-    <t>203.2</t>
-  </si>
-  <si>
-    <t>206.12</t>
-  </si>
-  <si>
-    <t>582.59</t>
-  </si>
-  <si>
-    <t>169.78</t>
-  </si>
-  <si>
-    <t>450.5</t>
-  </si>
-  <si>
-    <t>3,501.98</t>
-  </si>
-  <si>
-    <t>308.27</t>
-  </si>
-  <si>
-    <t>1,385.87</t>
-  </si>
-  <si>
-    <t>37,122</t>
-  </si>
-  <si>
-    <t>16.47</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>89.99</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:52:54</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:52:55</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:52:56</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:52:57</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:52:58</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:52:59</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:00</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:01</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:02</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:03</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:04</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:05</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:06</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:07</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:08</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:09</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:10</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:11</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:12</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:13</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:14</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:15</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:16</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:17</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:18</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:19</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:20</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:21</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:22</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:23</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:24</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:25</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:26</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:27</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:28</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:29</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:30</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:31</t>
-  </si>
-  <si>
-    <t>2021-12-28 11:53:32</t>
+    <t>97.36</t>
+  </si>
+  <si>
+    <t>189.03</t>
+  </si>
+  <si>
+    <t>7,516.62</t>
+  </si>
+  <si>
+    <t>10,759.62</t>
+  </si>
+  <si>
+    <t>983.98</t>
+  </si>
+  <si>
+    <t>473.59</t>
+  </si>
+  <si>
+    <t>184.96</t>
+  </si>
+  <si>
+    <t>15.63</t>
+  </si>
+  <si>
+    <t>1,015,427.39</t>
+  </si>
+  <si>
+    <t>621</t>
+  </si>
+  <si>
+    <t>9,699.88</t>
+  </si>
+  <si>
+    <t>24.53</t>
+  </si>
+  <si>
+    <t>31.06</t>
+  </si>
+  <si>
+    <t>202.6</t>
+  </si>
+  <si>
+    <t>205.15</t>
+  </si>
+  <si>
+    <t>582.6</t>
+  </si>
+  <si>
+    <t>168.79</t>
+  </si>
+  <si>
+    <t>449.85</t>
+  </si>
+  <si>
+    <t>3,487.2</t>
+  </si>
+  <si>
+    <t>307.07</t>
+  </si>
+  <si>
+    <t>1,377.8</t>
+  </si>
+  <si>
+    <t>37,200.05</t>
+  </si>
+  <si>
+    <t>16.48</t>
+  </si>
+  <si>
+    <t>215.19</t>
+  </si>
+  <si>
+    <t>88.92</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:21</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:22</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:23</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:24</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:25</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:26</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:27</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:28</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:29</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:30</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:31</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:32</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:33</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:34</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:35</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:36</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:37</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:38</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:39</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:40</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:41</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:42</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:43</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:44</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:45</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:46</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:47</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:48</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:49</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:50</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:51</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:52</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:53</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:54</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:55</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:56</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00:57</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1142,7 @@
         <v>128</v>
       </c>
       <c r="H3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -1192,7 +1186,7 @@
         <v>129</v>
       </c>
       <c r="H4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -1251,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -1280,7 +1274,7 @@
         <v>131</v>
       </c>
       <c r="H6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -1324,7 +1318,7 @@
         <v>132</v>
       </c>
       <c r="H7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -1339,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -1374,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -1412,7 +1406,7 @@
         <v>134</v>
       </c>
       <c r="H9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -1456,7 +1450,7 @@
         <v>135</v>
       </c>
       <c r="H10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -1503,7 +1497,7 @@
         <v>188</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -1544,7 +1538,7 @@
         <v>137</v>
       </c>
       <c r="H12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -1588,7 +1582,7 @@
         <v>138</v>
       </c>
       <c r="H13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -1720,7 +1714,7 @@
         <v>141</v>
       </c>
       <c r="H16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -1852,7 +1846,7 @@
         <v>144</v>
       </c>
       <c r="H19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -1896,10 +1890,10 @@
         <v>145</v>
       </c>
       <c r="H20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
@@ -1984,7 +1978,7 @@
         <v>147</v>
       </c>
       <c r="H22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -1999,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -2028,7 +2022,7 @@
         <v>148</v>
       </c>
       <c r="H23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -2043,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -2116,7 +2110,7 @@
         <v>150</v>
       </c>
       <c r="H25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -2160,7 +2154,7 @@
         <v>151</v>
       </c>
       <c r="H26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -2207,7 +2201,7 @@
         <v>199</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="b">
         <v>0</v>
@@ -2248,7 +2242,7 @@
         <v>153</v>
       </c>
       <c r="H28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -2292,7 +2286,7 @@
         <v>154</v>
       </c>
       <c r="H29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -2424,7 +2418,7 @@
         <v>157</v>
       </c>
       <c r="H32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -2512,7 +2506,7 @@
         <v>159</v>
       </c>
       <c r="H34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -2559,7 +2553,7 @@
         <v>160</v>
       </c>
       <c r="H35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -2603,7 +2597,7 @@
         <v>161</v>
       </c>
       <c r="H36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -2647,7 +2641,7 @@
         <v>162</v>
       </c>
       <c r="H37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -2691,7 +2685,7 @@
         <v>163</v>
       </c>
       <c r="H38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -2782,7 +2776,7 @@
         <v>208</v>
       </c>
       <c r="I40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="b">
         <v>0</v>
@@ -2823,7 +2817,7 @@
         <v>166</v>
       </c>
       <c r="H41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -2867,13 +2861,13 @@
         <v>167</v>
       </c>
       <c r="H42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
       </c>
       <c r="J42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -2911,7 +2905,7 @@
         <v>168</v>
       </c>
       <c r="H43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -2926,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
@@ -2955,7 +2949,7 @@
         <v>169</v>
       </c>
       <c r="H44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -2993,13 +2987,13 @@
         <v>70</v>
       </c>
       <c r="F45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G45" t="s">
         <v>170</v>
       </c>
       <c r="H45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
@@ -3014,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -3037,13 +3031,13 @@
         <v>70</v>
       </c>
       <c r="F46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G46" t="s">
         <v>171</v>
       </c>
       <c r="H46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
@@ -3081,13 +3075,13 @@
         <v>70</v>
       </c>
       <c r="F47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G47" t="s">
         <v>172</v>
       </c>
       <c r="H47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -3125,13 +3119,13 @@
         <v>70</v>
       </c>
       <c r="F48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G48" t="s">
         <v>173</v>
       </c>
       <c r="H48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
@@ -3169,13 +3163,13 @@
         <v>70</v>
       </c>
       <c r="F49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G49" t="s">
         <v>174</v>
       </c>
       <c r="H49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
@@ -3213,13 +3207,13 @@
         <v>70</v>
       </c>
       <c r="F50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G50" t="s">
         <v>175</v>
       </c>
       <c r="H50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
@@ -3257,13 +3251,13 @@
         <v>70</v>
       </c>
       <c r="F51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G51" t="s">
         <v>176</v>
       </c>
       <c r="H51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I51" t="b">
         <v>0</v>
@@ -3301,13 +3295,13 @@
         <v>70</v>
       </c>
       <c r="F52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G52" t="s">
         <v>177</v>
       </c>
       <c r="H52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
@@ -3345,13 +3339,13 @@
         <v>70</v>
       </c>
       <c r="F53" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G53" t="s">
         <v>178</v>
       </c>
       <c r="H53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I53" t="b">
         <v>0</v>
@@ -3395,10 +3389,10 @@
         <v>179</v>
       </c>
       <c r="H54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="b">
         <v>0</v>
@@ -3439,7 +3433,7 @@
         <v>180</v>
       </c>
       <c r="H55" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I55" t="b">
         <v>0</v>
@@ -3483,7 +3477,7 @@
         <v>181</v>
       </c>
       <c r="H56" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I56" t="b">
         <v>0</v>

--- a/exports/data.xlsx
+++ b/exports/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="215">
   <si>
     <t>currency</t>
   </si>
@@ -232,217 +232,214 @@
     <t>Up</t>
   </si>
   <si>
-    <t>Sell</t>
-  </si>
-  <si>
-    <t>-2.99%</t>
-  </si>
-  <si>
-    <t>-2.92%</t>
-  </si>
-  <si>
-    <t>-4.31%</t>
-  </si>
-  <si>
-    <t>-1.06%</t>
-  </si>
-  <si>
-    <t>-5.15%</t>
-  </si>
-  <si>
-    <t>0.27%</t>
-  </si>
-  <si>
-    <t>0.53%</t>
-  </si>
-  <si>
-    <t>-4.4%</t>
-  </si>
-  <si>
-    <t>-3.7%</t>
-  </si>
-  <si>
-    <t>-10.7%</t>
-  </si>
-  <si>
-    <t>-4.76%</t>
-  </si>
-  <si>
-    <t>-7.53%</t>
-  </si>
-  <si>
-    <t>-5.28%</t>
-  </si>
-  <si>
-    <t>-8%</t>
-  </si>
-  <si>
-    <t>-5.6%</t>
-  </si>
-  <si>
-    <t>-4.21%</t>
+    <t>-2.91%</t>
+  </si>
+  <si>
+    <t>-2.87%</t>
+  </si>
+  <si>
+    <t>-3.9%</t>
+  </si>
+  <si>
+    <t>-1.32%</t>
+  </si>
+  <si>
+    <t>-5.48%</t>
+  </si>
+  <si>
+    <t>0.43%</t>
+  </si>
+  <si>
+    <t>0.3%</t>
+  </si>
+  <si>
+    <t>-4.1%</t>
+  </si>
+  <si>
+    <t>-3.44%</t>
+  </si>
+  <si>
+    <t>-10.18%</t>
+  </si>
+  <si>
+    <t>-3.17%</t>
+  </si>
+  <si>
+    <t>-6.66%</t>
+  </si>
+  <si>
+    <t>-4.38%</t>
+  </si>
+  <si>
+    <t>-9.45%</t>
+  </si>
+  <si>
+    <t>-5.99%</t>
+  </si>
+  <si>
+    <t>-4.55%</t>
   </si>
   <si>
     <t>-16.99%</t>
   </si>
   <si>
-    <t>-3.29%</t>
-  </si>
-  <si>
-    <t>-9.46%</t>
-  </si>
-  <si>
-    <t>-4.61%</t>
-  </si>
-  <si>
-    <t>-16.18%</t>
-  </si>
-  <si>
-    <t>-17.47%</t>
+    <t>-2.58%</t>
+  </si>
+  <si>
+    <t>-7.51%</t>
+  </si>
+  <si>
+    <t>-4.39%</t>
+  </si>
+  <si>
+    <t>-5.78%</t>
+  </si>
+  <si>
+    <t>-11.01%</t>
   </si>
   <si>
     <t>-50.86%</t>
   </si>
   <si>
-    <t>0.48%</t>
-  </si>
-  <si>
-    <t>-5.49%</t>
-  </si>
-  <si>
-    <t>-5.01%</t>
-  </si>
-  <si>
-    <t>-0.27%</t>
-  </si>
-  <si>
-    <t>0.09%</t>
-  </si>
-  <si>
-    <t>-5.5%</t>
-  </si>
-  <si>
-    <t>-4.93%</t>
-  </si>
-  <si>
-    <t>-9.85%</t>
-  </si>
-  <si>
-    <t>-4.54%</t>
-  </si>
-  <si>
-    <t>-4.58%</t>
-  </si>
-  <si>
-    <t>-0.75%</t>
-  </si>
-  <si>
-    <t>-6.46%</t>
-  </si>
-  <si>
-    <t>-9.7%</t>
-  </si>
-  <si>
-    <t>-12.4%</t>
-  </si>
-  <si>
-    <t>-5.79%</t>
-  </si>
-  <si>
-    <t>-3.61%</t>
-  </si>
-  <si>
-    <t>-3.49%</t>
-  </si>
-  <si>
-    <t>2.1%</t>
-  </si>
-  <si>
-    <t>-3.43%</t>
-  </si>
-  <si>
-    <t>-4.08%</t>
-  </si>
-  <si>
-    <t>-8.92%</t>
-  </si>
-  <si>
-    <t>-5.52%</t>
-  </si>
-  <si>
-    <t>-12.1%</t>
-  </si>
-  <si>
-    <t>-6.96%</t>
-  </si>
-  <si>
-    <t>-3.94%</t>
-  </si>
-  <si>
-    <t>15.7%</t>
-  </si>
-  <si>
-    <t>-4.49%</t>
-  </si>
-  <si>
-    <t>-3.57%</t>
-  </si>
-  <si>
-    <t>-9.45%</t>
-  </si>
-  <si>
-    <t>-20.27%</t>
-  </si>
-  <si>
-    <t>-5.4%</t>
-  </si>
-  <si>
-    <t>1,667,009.99</t>
-  </si>
-  <si>
-    <t>133,000</t>
-  </si>
-  <si>
-    <t>23.33</t>
-  </si>
-  <si>
-    <t>49.24</t>
+    <t>0.79%</t>
+  </si>
+  <si>
+    <t>-3.88%</t>
+  </si>
+  <si>
+    <t>-4.28%</t>
+  </si>
+  <si>
+    <t>-0.3%</t>
+  </si>
+  <si>
+    <t>-0.53%</t>
+  </si>
+  <si>
+    <t>-4.15%</t>
+  </si>
+  <si>
+    <t>-4.65%</t>
+  </si>
+  <si>
+    <t>-9.13%</t>
+  </si>
+  <si>
+    <t>-4.43%</t>
+  </si>
+  <si>
+    <t>-4.05%</t>
+  </si>
+  <si>
+    <t>1.08%</t>
+  </si>
+  <si>
+    <t>-5.96%</t>
+  </si>
+  <si>
+    <t>-8.39%</t>
+  </si>
+  <si>
+    <t>-11.23%</t>
+  </si>
+  <si>
+    <t>-5.36%</t>
+  </si>
+  <si>
+    <t>-3.78%</t>
+  </si>
+  <si>
+    <t>-2.84%</t>
+  </si>
+  <si>
+    <t>0.78%</t>
+  </si>
+  <si>
+    <t>-2.56%</t>
+  </si>
+  <si>
+    <t>-3.01%</t>
+  </si>
+  <si>
+    <t>-4.51%</t>
+  </si>
+  <si>
+    <t>-7.87%</t>
+  </si>
+  <si>
+    <t>-4.95%</t>
+  </si>
+  <si>
+    <t>-10.28%</t>
+  </si>
+  <si>
+    <t>3.13%</t>
+  </si>
+  <si>
+    <t>-3.74%</t>
+  </si>
+  <si>
+    <t>17.51%</t>
+  </si>
+  <si>
+    <t>-3.31%</t>
+  </si>
+  <si>
+    <t>-8.54%</t>
+  </si>
+  <si>
+    <t>-18.13%</t>
+  </si>
+  <si>
+    <t>-3.95%</t>
+  </si>
+  <si>
+    <t>1,670,000</t>
+  </si>
+  <si>
+    <t>133,279</t>
+  </si>
+  <si>
+    <t>23.44</t>
+  </si>
+  <si>
+    <t>49.42</t>
   </si>
   <si>
     <t>220.42</t>
   </si>
   <si>
-    <t>15,257.98</t>
-  </si>
-  <si>
-    <t>33.92</t>
-  </si>
-  <si>
-    <t>5,037.5</t>
-  </si>
-  <si>
-    <t>29.92</t>
-  </si>
-  <si>
-    <t>2.52</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>11.79</t>
-  </si>
-  <si>
-    <t>742</t>
+    <t>15,304</t>
+  </si>
+  <si>
+    <t>33.91</t>
+  </si>
+  <si>
+    <t>5,053.98</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2.5367</t>
+  </si>
+  <si>
+    <t>2.44</t>
+  </si>
+  <si>
+    <t>11.92</t>
+  </si>
+  <si>
+    <t>745.86</t>
   </si>
   <si>
     <t>1.15</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>45.31</t>
+    <t>28.1</t>
+  </si>
+  <si>
+    <t>45.34</t>
   </si>
   <si>
     <t>6.06</t>
@@ -451,226 +448,217 @@
     <t>5.29</t>
   </si>
   <si>
-    <t>119.51</t>
-  </si>
-  <si>
-    <t>9.52</t>
-  </si>
-  <si>
-    <t>8.39</t>
-  </si>
-  <si>
-    <t>111</t>
+    <t>120.87</t>
+  </si>
+  <si>
+    <t>9.58</t>
+  </si>
+  <si>
+    <t>9.29</t>
+  </si>
+  <si>
+    <t>119</t>
   </si>
   <si>
     <t>2.57</t>
   </si>
   <si>
-    <t>18,569.44</t>
-  </si>
-  <si>
-    <t>14.98</t>
-  </si>
-  <si>
-    <t>6.0888</t>
+    <t>18,597.65</t>
+  </si>
+  <si>
+    <t>15.1</t>
+  </si>
+  <si>
+    <t>6.1263</t>
+  </si>
+  <si>
+    <t>33.59</t>
   </si>
   <si>
     <t>33.6</t>
   </si>
   <si>
-    <t>33.8</t>
-  </si>
-  <si>
-    <t>43.66</t>
-  </si>
-  <si>
-    <t>87,271.84</t>
-  </si>
-  <si>
-    <t>97.36</t>
-  </si>
-  <si>
-    <t>189.03</t>
-  </si>
-  <si>
-    <t>7,516.62</t>
-  </si>
-  <si>
-    <t>10,759.62</t>
-  </si>
-  <si>
-    <t>983.98</t>
-  </si>
-  <si>
-    <t>473.59</t>
-  </si>
-  <si>
-    <t>184.96</t>
-  </si>
-  <si>
-    <t>15.63</t>
-  </si>
-  <si>
-    <t>1,015,427.39</t>
-  </si>
-  <si>
-    <t>621</t>
-  </si>
-  <si>
-    <t>9,699.88</t>
-  </si>
-  <si>
-    <t>24.53</t>
-  </si>
-  <si>
-    <t>31.06</t>
-  </si>
-  <si>
-    <t>202.6</t>
-  </si>
-  <si>
-    <t>205.15</t>
-  </si>
-  <si>
-    <t>582.6</t>
-  </si>
-  <si>
-    <t>168.79</t>
-  </si>
-  <si>
-    <t>449.85</t>
-  </si>
-  <si>
-    <t>3,487.2</t>
-  </si>
-  <si>
-    <t>307.07</t>
-  </si>
-  <si>
-    <t>1,377.8</t>
-  </si>
-  <si>
-    <t>37,200.05</t>
-  </si>
-  <si>
-    <t>16.48</t>
-  </si>
-  <si>
-    <t>215.19</t>
-  </si>
-  <si>
-    <t>88.92</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:21</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:22</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:23</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:24</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:25</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:26</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:27</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:28</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:29</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:30</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:31</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:32</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:33</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:34</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:35</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:36</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:37</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:38</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:39</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:40</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:41</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:42</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:43</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:44</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:45</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:46</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:47</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:48</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:49</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:50</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:51</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:52</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:53</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:54</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:55</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:56</t>
-  </si>
-  <si>
-    <t>2021-12-28 12:00:57</t>
+    <t>44.07</t>
+  </si>
+  <si>
+    <t>87,576</t>
+  </si>
+  <si>
+    <t>98.31</t>
+  </si>
+  <si>
+    <t>189.23</t>
+  </si>
+  <si>
+    <t>7,580</t>
+  </si>
+  <si>
+    <t>10,867.21</t>
+  </si>
+  <si>
+    <t>986.91</t>
+  </si>
+  <si>
+    <t>477.5</t>
+  </si>
+  <si>
+    <t>187.29</t>
+  </si>
+  <si>
+    <t>15.71</t>
+  </si>
+  <si>
+    <t>1,017,950</t>
+  </si>
+  <si>
+    <t>627.76</t>
+  </si>
+  <si>
+    <t>9,674.88</t>
+  </si>
+  <si>
+    <t>24.72</t>
+  </si>
+  <si>
+    <t>31.27</t>
+  </si>
+  <si>
+    <t>203.82</t>
+  </si>
+  <si>
+    <t>206.91</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
+    <t>172.26</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>3,489.16</t>
+  </si>
+  <si>
+    <t>309.76</t>
+  </si>
+  <si>
+    <t>1,384.11</t>
+  </si>
+  <si>
+    <t>37,300</t>
+  </si>
+  <si>
+    <t>16.6</t>
+  </si>
+  <si>
+    <t>220.98</t>
+  </si>
+  <si>
+    <t>89.95</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:29</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:30</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:31</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:32</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:33</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:34</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:35</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:36</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:37</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:38</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:39</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:40</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:41</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:42</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:43</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:44</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:45</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:46</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:47</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:48</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:49</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:50</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:51</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:52</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:53</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:54</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:55</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:56</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:57</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:58</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:16:59</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:17:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:17:01</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:17:02</t>
   </si>
 </sst>
 </file>
@@ -1092,13 +1080,13 @@
         <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -1136,10 +1124,10 @@
         <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H3" t="s">
         <v>182</v>
@@ -1180,10 +1168,10 @@
         <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H4" t="s">
         <v>183</v>
@@ -1224,13 +1212,13 @@
         <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -1268,10 +1256,10 @@
         <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H6" t="s">
         <v>184</v>
@@ -1312,13 +1300,13 @@
         <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -1356,13 +1344,13 @@
         <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -1400,10 +1388,10 @@
         <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H9" t="s">
         <v>186</v>
@@ -1444,13 +1432,13 @@
         <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -1488,13 +1476,13 @@
         <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -1532,13 +1520,13 @@
         <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -1576,13 +1564,13 @@
         <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -1620,13 +1608,13 @@
         <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -1664,13 +1652,13 @@
         <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -1708,13 +1696,13 @@
         <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -1752,13 +1740,13 @@
         <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -1796,13 +1784,13 @@
         <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -1840,13 +1828,13 @@
         <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -1884,16 +1872,16 @@
         <v>70</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
@@ -1928,13 +1916,13 @@
         <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -1972,13 +1960,13 @@
         <v>70</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -2016,13 +2004,13 @@
         <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -2060,19 +2048,19 @@
         <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
       </c>
       <c r="J24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
@@ -2104,13 +2092,13 @@
         <v>70</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -2148,13 +2136,13 @@
         <v>70</v>
       </c>
       <c r="F26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -2192,13 +2180,13 @@
         <v>70</v>
       </c>
       <c r="F27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -2236,13 +2224,13 @@
         <v>70</v>
       </c>
       <c r="F28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H28" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -2280,13 +2268,13 @@
         <v>71</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -2324,13 +2312,13 @@
         <v>70</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H30" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -2368,13 +2356,13 @@
         <v>70</v>
       </c>
       <c r="F31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H31" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -2412,13 +2400,13 @@
         <v>70</v>
       </c>
       <c r="F32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H32" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -2456,13 +2444,13 @@
         <v>70</v>
       </c>
       <c r="F33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H33" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -2500,13 +2488,13 @@
         <v>70</v>
       </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H34" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -2543,17 +2531,14 @@
       <c r="D35" t="s">
         <v>70</v>
       </c>
-      <c r="E35" t="s">
-        <v>72</v>
-      </c>
       <c r="F35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H35" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -2562,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -2591,13 +2576,13 @@
         <v>70</v>
       </c>
       <c r="F36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H36" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -2635,13 +2620,13 @@
         <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H37" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -2679,13 +2664,13 @@
         <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H38" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -2723,13 +2708,13 @@
         <v>70</v>
       </c>
       <c r="F39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H39" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -2767,13 +2752,13 @@
         <v>70</v>
       </c>
       <c r="F40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H40" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -2811,13 +2796,13 @@
         <v>70</v>
       </c>
       <c r="F41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H41" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -2855,19 +2840,19 @@
         <v>70</v>
       </c>
       <c r="F42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H42" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
       </c>
       <c r="J42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -2899,13 +2884,13 @@
         <v>70</v>
       </c>
       <c r="F43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H43" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -2943,13 +2928,13 @@
         <v>70</v>
       </c>
       <c r="F44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H44" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -2990,10 +2975,10 @@
         <v>115</v>
       </c>
       <c r="G45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H45" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
@@ -3034,10 +3019,10 @@
         <v>116</v>
       </c>
       <c r="G46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H46" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
@@ -3078,10 +3063,10 @@
         <v>117</v>
       </c>
       <c r="G47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H47" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -3122,10 +3107,10 @@
         <v>118</v>
       </c>
       <c r="G48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H48" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
@@ -3166,10 +3151,10 @@
         <v>119</v>
       </c>
       <c r="G49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H49" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
@@ -3210,10 +3195,10 @@
         <v>120</v>
       </c>
       <c r="G50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H50" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
@@ -3254,10 +3239,10 @@
         <v>121</v>
       </c>
       <c r="G51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H51" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I51" t="b">
         <v>0</v>
@@ -3295,13 +3280,13 @@
         <v>70</v>
       </c>
       <c r="F52" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="G52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H52" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
@@ -3339,13 +3324,13 @@
         <v>70</v>
       </c>
       <c r="F53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G53" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H53" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I53" t="b">
         <v>0</v>
@@ -3383,16 +3368,16 @@
         <v>70</v>
       </c>
       <c r="F54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H54" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="b">
         <v>0</v>
@@ -3427,13 +3412,13 @@
         <v>70</v>
       </c>
       <c r="F55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H55" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I55" t="b">
         <v>0</v>
@@ -3471,13 +3456,13 @@
         <v>70</v>
       </c>
       <c r="F56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H56" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I56" t="b">
         <v>0</v>
